--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan\eclipse-workspace\PracticeUITesting\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan\git\repository\PracticeUITesting\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126B9F30-96AF-4DE1-A820-F80D8FF9AC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6606CB5E-0169-4447-8810-2722F030E576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testdata" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,15 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>Surname</t>
   </si>
   <si>
-    <t>Nayan</t>
+    <t>Ankush</t>
+  </si>
+  <si>
+    <t>Sharma</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -371,6 +374,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
